--- a/data/pca/factorExposure/factorExposure_2012-03-28.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-03-28.xlsx
@@ -14,12 +14,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
   <si>
     <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -686,34 +701,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.01686383402811919</v>
+        <v>-0.01673278246585208</v>
       </c>
       <c r="C2">
-        <v>-0.03552153848779407</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0.02903838644198499</v>
+      </c>
+      <c r="D2">
+        <v>-4.146760115568424e-05</v>
+      </c>
+      <c r="E2">
+        <v>-0.008906513972214867</v>
+      </c>
+      <c r="F2">
+        <v>0.008227153044470931</v>
+      </c>
+      <c r="G2">
+        <v>0.007470939475269317</v>
+      </c>
+      <c r="H2">
+        <v>-0.06014767509291733</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -721,21 +766,51 @@
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.07497608506452061</v>
+        <v>-0.0885665869114558</v>
       </c>
       <c r="C4">
-        <v>-0.05413608816715533</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>0.03824157512210077</v>
+      </c>
+      <c r="D4">
+        <v>0.06568762734917709</v>
+      </c>
+      <c r="E4">
+        <v>-0.01768191186737086</v>
+      </c>
+      <c r="F4">
+        <v>0.02912662718941632</v>
+      </c>
+      <c r="G4">
+        <v>0.008431811347590216</v>
+      </c>
+      <c r="H4">
+        <v>0.0399332148912046</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -743,131 +818,311 @@
       <c r="C5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.1077690553675967</v>
+        <v>-0.1194806134407072</v>
       </c>
       <c r="C6">
-        <v>-0.05616404725865733</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>0.0337792335861107</v>
+      </c>
+      <c r="D6">
+        <v>0.009086391765120088</v>
+      </c>
+      <c r="E6">
+        <v>0.003849009759133925</v>
+      </c>
+      <c r="F6">
+        <v>0.05821450610719496</v>
+      </c>
+      <c r="G6">
+        <v>0.02985196464596746</v>
+      </c>
+      <c r="H6">
+        <v>-0.1094806365418424</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.04939643164133691</v>
+        <v>-0.06479738152779672</v>
       </c>
       <c r="C7">
-        <v>-0.02755022788586831</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>0.01902547508447177</v>
+      </c>
+      <c r="D7">
+        <v>0.04548333476068749</v>
+      </c>
+      <c r="E7">
+        <v>-0.04054349496341702</v>
+      </c>
+      <c r="F7">
+        <v>0.03238574307672541</v>
+      </c>
+      <c r="G7">
+        <v>-0.04114614630722488</v>
+      </c>
+      <c r="H7">
+        <v>0.01570091852965409</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.03748164762881486</v>
+        <v>-0.04114797713971459</v>
       </c>
       <c r="C8">
-        <v>-0.01208707195570321</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>0.007583704505172401</v>
+      </c>
+      <c r="D8">
+        <v>0.0210933751869579</v>
+      </c>
+      <c r="E8">
+        <v>-0.03524979994187849</v>
+      </c>
+      <c r="F8">
+        <v>0.04664994129641382</v>
+      </c>
+      <c r="G8">
+        <v>0.04604280486821707</v>
+      </c>
+      <c r="H8">
+        <v>-0.002762538562618413</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.06754313032302055</v>
+        <v>-0.0799720421319762</v>
       </c>
       <c r="C9">
-        <v>-0.04459728109458352</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>0.02944355972529153</v>
+      </c>
+      <c r="D9">
+        <v>0.06345888775771107</v>
+      </c>
+      <c r="E9">
+        <v>-0.04121357939194764</v>
+      </c>
+      <c r="F9">
+        <v>0.03006490075827421</v>
+      </c>
+      <c r="G9">
+        <v>0.007358855672243703</v>
+      </c>
+      <c r="H9">
+        <v>0.05150182935202027</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.02877669598006316</v>
+        <v>-0.03451838062577564</v>
       </c>
       <c r="C10">
-        <v>-0.03467154539122256</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>0.04171315792625943</v>
+      </c>
+      <c r="D10">
+        <v>-0.1709952657452122</v>
+      </c>
+      <c r="E10">
+        <v>-0.05280360933933163</v>
+      </c>
+      <c r="F10">
+        <v>0.0440428380702936</v>
+      </c>
+      <c r="G10">
+        <v>-0.04094444042921328</v>
+      </c>
+      <c r="H10">
+        <v>-0.03655237380675919</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.06990838347299462</v>
+        <v>-0.07638856600103223</v>
       </c>
       <c r="C11">
-        <v>-0.04759682324219072</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>0.02755678269247823</v>
+      </c>
+      <c r="D11">
+        <v>0.06257218927178762</v>
+      </c>
+      <c r="E11">
+        <v>-0.00105568576373088</v>
+      </c>
+      <c r="F11">
+        <v>0.02680076497898907</v>
+      </c>
+      <c r="G11">
+        <v>-0.005399306500782876</v>
+      </c>
+      <c r="H11">
+        <v>0.09790115430645591</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.057524462521572</v>
+        <v>-0.06718334419137831</v>
       </c>
       <c r="C12">
-        <v>-0.05131577015671044</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>0.03550991764681997</v>
+      </c>
+      <c r="D12">
+        <v>0.04851656039954155</v>
+      </c>
+      <c r="E12">
+        <v>-0.01627344513187663</v>
+      </c>
+      <c r="F12">
+        <v>0.01874200645710885</v>
+      </c>
+      <c r="G12">
+        <v>-0.0009293948282000537</v>
+      </c>
+      <c r="H12">
+        <v>0.05450367650863913</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.05914166200825952</v>
+        <v>-0.0648330332148162</v>
       </c>
       <c r="C13">
-        <v>-0.04069071899487741</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>0.02501354266667034</v>
+      </c>
+      <c r="D13">
+        <v>0.04279908088415633</v>
+      </c>
+      <c r="E13">
+        <v>-0.01473449253555036</v>
+      </c>
+      <c r="F13">
+        <v>0.00116521174833869</v>
+      </c>
+      <c r="G13">
+        <v>-0.007490416120800363</v>
+      </c>
+      <c r="H13">
+        <v>0.0496807426395626</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.03223429596728787</v>
+        <v>-0.04119558397234029</v>
       </c>
       <c r="C14">
-        <v>-0.03212770442356475</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>0.02810601452070999</v>
+      </c>
+      <c r="D14">
+        <v>0.004479800814307947</v>
+      </c>
+      <c r="E14">
+        <v>-0.03381649654874743</v>
+      </c>
+      <c r="F14">
+        <v>0.01056300299962484</v>
+      </c>
+      <c r="G14">
+        <v>0.01053462712119427</v>
+      </c>
+      <c r="H14">
+        <v>0.05610114715182959</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>-0.03897162927354791</v>
+        <v>-0.03994738306149814</v>
       </c>
       <c r="C15">
-        <v>-0.01028794814609347</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>0.002892940771705984</v>
+      </c>
+      <c r="D15">
+        <v>0.003269576932168465</v>
+      </c>
+      <c r="E15">
+        <v>-0.04190653308010583</v>
+      </c>
+      <c r="F15">
+        <v>-0.006605307200425514</v>
+      </c>
+      <c r="G15">
+        <v>0.02823421921552232</v>
+      </c>
+      <c r="H15">
+        <v>0.03813863551517489</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.06061331311460265</v>
+        <v>-0.07048496336267517</v>
       </c>
       <c r="C16">
-        <v>-0.04298007589464214</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>0.02760419063746957</v>
+      </c>
+      <c r="D16">
+        <v>0.06247807819199335</v>
+      </c>
+      <c r="E16">
+        <v>-0.009694740400101393</v>
+      </c>
+      <c r="F16">
+        <v>0.02364464163248859</v>
+      </c>
+      <c r="G16">
+        <v>-0.004966327343219772</v>
+      </c>
+      <c r="H16">
+        <v>0.06174781639458771</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -875,10 +1130,25 @@
       <c r="C17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -886,10 +1156,25 @@
       <c r="C18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -897,87 +1182,207 @@
       <c r="C19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.06404311962184597</v>
+        <v>-0.06332004860093052</v>
       </c>
       <c r="C20">
-        <v>-0.0327221858850712</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>0.01383785870693208</v>
+      </c>
+      <c r="D20">
+        <v>0.03997078517632485</v>
+      </c>
+      <c r="E20">
+        <v>-0.03571744359849283</v>
+      </c>
+      <c r="F20">
+        <v>0.01566481274383504</v>
+      </c>
+      <c r="G20">
+        <v>0.01202363965709351</v>
+      </c>
+      <c r="H20">
+        <v>0.05013213759562646</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.02360961777683608</v>
+        <v>-0.02413751441870788</v>
       </c>
       <c r="C21">
-        <v>0.002523493792032304</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>-0.009449952534006951</v>
+      </c>
+      <c r="D21">
+        <v>0.02704410862287607</v>
+      </c>
+      <c r="E21">
+        <v>-0.03953696144103418</v>
+      </c>
+      <c r="F21">
+        <v>-0.01524576815234516</v>
+      </c>
+      <c r="G21">
+        <v>0.01202698329623432</v>
+      </c>
+      <c r="H21">
+        <v>-0.04854202662100586</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>-0.07613689578925724</v>
+        <v>-0.07152019403349197</v>
       </c>
       <c r="C22">
-        <v>-0.05759183649325664</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>0.036155451236368</v>
+      </c>
+      <c r="D22">
+        <v>0.06514609684269423</v>
+      </c>
+      <c r="E22">
+        <v>-0.5567411612376078</v>
+      </c>
+      <c r="F22">
+        <v>-0.2617055214874204</v>
+      </c>
+      <c r="G22">
+        <v>-0.05731292303135931</v>
+      </c>
+      <c r="H22">
+        <v>-0.1725309678812547</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>-0.07713402067787112</v>
+        <v>-0.07215962199511311</v>
       </c>
       <c r="C23">
-        <v>-0.05651716103578018</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>0.03485092434201578</v>
+      </c>
+      <c r="D23">
+        <v>0.0660253225654283</v>
+      </c>
+      <c r="E23">
+        <v>-0.5562549065236989</v>
+      </c>
+      <c r="F23">
+        <v>-0.2602698891993369</v>
+      </c>
+      <c r="G23">
+        <v>-0.05563257288616684</v>
+      </c>
+      <c r="H23">
+        <v>-0.1674974490765353</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.0709137744744861</v>
+        <v>-0.08037499845026236</v>
       </c>
       <c r="C24">
-        <v>-0.05149966767544716</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>0.03344184556868861</v>
+      </c>
+      <c r="D24">
+        <v>0.05837895658657802</v>
+      </c>
+      <c r="E24">
+        <v>-0.0207604994328147</v>
+      </c>
+      <c r="F24">
+        <v>0.03384640958947361</v>
+      </c>
+      <c r="G24">
+        <v>0.004891847710600072</v>
+      </c>
+      <c r="H24">
+        <v>0.06886447377670084</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.07067171509937024</v>
+        <v>-0.07768783404374634</v>
       </c>
       <c r="C25">
-        <v>-0.0572253586673089</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>0.03816258115650091</v>
+      </c>
+      <c r="D25">
+        <v>0.05121399119312409</v>
+      </c>
+      <c r="E25">
+        <v>-0.02334539983878733</v>
+      </c>
+      <c r="F25">
+        <v>0.02625232109227207</v>
+      </c>
+      <c r="G25">
+        <v>0.01791662346770213</v>
+      </c>
+      <c r="H25">
+        <v>0.06809643561548914</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.04438203018212466</v>
+        <v>-0.04718242354554275</v>
       </c>
       <c r="C26">
-        <v>-0.009967384786377934</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>0.001480824848110248</v>
+      </c>
+      <c r="D26">
+        <v>0.0176937929987842</v>
+      </c>
+      <c r="E26">
+        <v>-0.05437605944054912</v>
+      </c>
+      <c r="F26">
+        <v>0.01842128132940159</v>
+      </c>
+      <c r="G26">
+        <v>-0.0070426074500776</v>
+      </c>
+      <c r="H26">
+        <v>0.0604084869551077</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -985,109 +1390,259 @@
       <c r="C27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.05243887210778717</v>
+        <v>-0.06202660640865658</v>
       </c>
       <c r="C28">
-        <v>-0.07511300090099979</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>0.08341070349538904</v>
+      </c>
+      <c r="D28">
+        <v>-0.3075591262401436</v>
+      </c>
+      <c r="E28">
+        <v>-0.02826782881607667</v>
+      </c>
+      <c r="F28">
+        <v>0.05679430618573181</v>
+      </c>
+      <c r="G28">
+        <v>0.03098049658884497</v>
+      </c>
+      <c r="H28">
+        <v>-0.04374373590484819</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.04050079633678429</v>
+        <v>-0.04850606196654544</v>
       </c>
       <c r="C29">
-        <v>-0.03221519181480174</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>0.0260208257367401</v>
+      </c>
+      <c r="D29">
+        <v>0.004398090109266759</v>
+      </c>
+      <c r="E29">
+        <v>-0.05781114991867017</v>
+      </c>
+      <c r="F29">
+        <v>-0.001855501107773641</v>
+      </c>
+      <c r="G29">
+        <v>-0.006073888259541384</v>
+      </c>
+      <c r="H29">
+        <v>0.08371464783865157</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.127034382018954</v>
+        <v>-0.1326050461366064</v>
       </c>
       <c r="C30">
-        <v>-0.0953967135726087</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>0.06379500580246882</v>
+      </c>
+      <c r="D30">
+        <v>0.06979128497548913</v>
+      </c>
+      <c r="E30">
+        <v>-0.0850001744962309</v>
+      </c>
+      <c r="F30">
+        <v>-0.02447849437553714</v>
+      </c>
+      <c r="G30">
+        <v>0.072698427418487</v>
+      </c>
+      <c r="H30">
+        <v>-0.03484182292229818</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.04262789671736049</v>
+        <v>-0.04904641705774752</v>
       </c>
       <c r="C31">
-        <v>-0.02087847139246931</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>0.01273858994059301</v>
+      </c>
+      <c r="D31">
+        <v>0.02460750345241475</v>
+      </c>
+      <c r="E31">
+        <v>-0.03125972642655308</v>
+      </c>
+      <c r="F31">
+        <v>0.008101171602668933</v>
+      </c>
+      <c r="G31">
+        <v>-0.02478729446448061</v>
+      </c>
+      <c r="H31">
+        <v>0.06451900540106167</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.03557795921480477</v>
+        <v>-0.03845509086721129</v>
       </c>
       <c r="C32">
-        <v>-0.02193705073693306</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>0.01603710625325522</v>
+      </c>
+      <c r="D32">
+        <v>0.01098924258088712</v>
+      </c>
+      <c r="E32">
+        <v>-0.06715881772727796</v>
+      </c>
+      <c r="F32">
+        <v>-0.02126108222833966</v>
+      </c>
+      <c r="G32">
+        <v>0.02911103121880843</v>
+      </c>
+      <c r="H32">
+        <v>0.06550089566055234</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.08170908138683332</v>
+        <v>-0.09538706002192533</v>
       </c>
       <c r="C33">
-        <v>-0.0444810530452374</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>0.02652813724534131</v>
+      </c>
+      <c r="D33">
+        <v>0.04963950277095393</v>
+      </c>
+      <c r="E33">
+        <v>-0.01643795492035905</v>
+      </c>
+      <c r="F33">
+        <v>0.0003796885254683741</v>
+      </c>
+      <c r="G33">
+        <v>-0.01030939416558474</v>
+      </c>
+      <c r="H33">
+        <v>0.0726760382994763</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.05610998048836219</v>
+        <v>-0.06228274167021643</v>
       </c>
       <c r="C34">
-        <v>-0.02898056755184726</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>0.01336965466308177</v>
+      </c>
+      <c r="D34">
+        <v>0.05349113875902262</v>
+      </c>
+      <c r="E34">
+        <v>-0.01181754403354357</v>
+      </c>
+      <c r="F34">
+        <v>0.01747156738402108</v>
+      </c>
+      <c r="G34">
+        <v>0.005717093369939948</v>
+      </c>
+      <c r="H34">
+        <v>0.06155521490984981</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>-0.03665809690735317</v>
+        <v>-0.04007606456326804</v>
       </c>
       <c r="C35">
-        <v>-0.008608001700778025</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>0.002241628507462862</v>
+      </c>
+      <c r="D35">
+        <v>0.005950505634468179</v>
+      </c>
+      <c r="E35">
+        <v>-0.01790101468962835</v>
+      </c>
+      <c r="F35">
+        <v>-0.015589578218774</v>
+      </c>
+      <c r="G35">
+        <v>-0.01128167823764585</v>
+      </c>
+      <c r="H35">
+        <v>0.02815102989556693</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.02043887720887139</v>
+        <v>-0.02707450202629115</v>
       </c>
       <c r="C36">
-        <v>-0.01749051424450019</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>0.01341891309891373</v>
+      </c>
+      <c r="D36">
+        <v>0.01196774181965715</v>
+      </c>
+      <c r="E36">
+        <v>-0.046361607111255</v>
+      </c>
+      <c r="F36">
+        <v>0.01159726823171191</v>
+      </c>
+      <c r="G36">
+        <v>-0.008613639641955507</v>
+      </c>
+      <c r="H36">
+        <v>0.04698644854384684</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1095,54 +1650,129 @@
       <c r="C37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.03936212152907383</v>
+        <v>-0.04388850479083105</v>
       </c>
       <c r="C38">
-        <v>-0.002428535936123652</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>-0.002843029358346176</v>
+      </c>
+      <c r="D38">
+        <v>0.01568366623287184</v>
+      </c>
+      <c r="E38">
+        <v>-0.05450799568959957</v>
+      </c>
+      <c r="F38">
+        <v>-0.01804890452087388</v>
+      </c>
+      <c r="G38">
+        <v>0.01100879790265324</v>
+      </c>
+      <c r="H38">
+        <v>0.02585902891156772</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.08952447304598467</v>
+        <v>-0.1021021725849065</v>
       </c>
       <c r="C39">
-        <v>-0.07160162580152263</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>0.0494824010620967</v>
+      </c>
+      <c r="D39">
+        <v>0.06643747920422606</v>
+      </c>
+      <c r="E39">
+        <v>-0.002973067356321921</v>
+      </c>
+      <c r="F39">
+        <v>0.007602412795018117</v>
+      </c>
+      <c r="G39">
+        <v>0.03682039112304</v>
+      </c>
+      <c r="H39">
+        <v>0.07142655007586708</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.07358536231995653</v>
+        <v>-0.07186516126092699</v>
       </c>
       <c r="C40">
-        <v>-0.03964051590732449</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>0.01878560735457464</v>
+      </c>
+      <c r="D40">
+        <v>0.01123905798568071</v>
+      </c>
+      <c r="E40">
+        <v>-0.01734281472275449</v>
+      </c>
+      <c r="F40">
+        <v>-0.05471980417685505</v>
+      </c>
+      <c r="G40">
+        <v>0.04320525496388381</v>
+      </c>
+      <c r="H40">
+        <v>-0.08564244927323462</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.04069921661618797</v>
+        <v>-0.0437305402601212</v>
       </c>
       <c r="C41">
-        <v>-0.006398460732475391</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>-0.001449008055155672</v>
+      </c>
+      <c r="D41">
+        <v>0.03449590214446199</v>
+      </c>
+      <c r="E41">
+        <v>-0.003746080426024702</v>
+      </c>
+      <c r="F41">
+        <v>-0.01716795321206548</v>
+      </c>
+      <c r="G41">
+        <v>0.01063740212397947</v>
+      </c>
+      <c r="H41">
+        <v>0.036202313565723</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1150,32 +1780,77 @@
       <c r="C42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.04685485004367725</v>
+        <v>-0.05745270865635144</v>
       </c>
       <c r="C43">
-        <v>-0.02581526080610731</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>0.01688026975690278</v>
+      </c>
+      <c r="D43">
+        <v>0.02485481738368388</v>
+      </c>
+      <c r="E43">
+        <v>-0.02105721213389921</v>
+      </c>
+      <c r="F43">
+        <v>0.009642422908893611</v>
+      </c>
+      <c r="G43">
+        <v>-0.01463392319251066</v>
+      </c>
+      <c r="H43">
+        <v>0.05561402335202446</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.0927962191117882</v>
+        <v>-0.09455416558894357</v>
       </c>
       <c r="C44">
-        <v>-0.09334363555077101</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>0.06406120608188505</v>
+      </c>
+      <c r="D44">
+        <v>0.06031588107621116</v>
+      </c>
+      <c r="E44">
+        <v>-0.09803795943891275</v>
+      </c>
+      <c r="F44">
+        <v>0.03267048120777945</v>
+      </c>
+      <c r="G44">
+        <v>0.0300417284966936</v>
+      </c>
+      <c r="H44">
+        <v>0.01611710929766233</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1183,76 +1858,181 @@
       <c r="C45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.02512905418058811</v>
+        <v>-0.03294410210067679</v>
       </c>
       <c r="C46">
-        <v>-0.01421684961048089</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>0.01069126634132553</v>
+      </c>
+      <c r="D46">
+        <v>0.03050266221039348</v>
+      </c>
+      <c r="E46">
+        <v>-0.03296606181025619</v>
+      </c>
+      <c r="F46">
+        <v>0.01413486965925597</v>
+      </c>
+      <c r="G46">
+        <v>0.002895204716793859</v>
+      </c>
+      <c r="H46">
+        <v>0.03787816301069589</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.03051870525469752</v>
+        <v>-0.03818889365031147</v>
       </c>
       <c r="C47">
-        <v>-0.02517620926842119</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>0.01967735616253977</v>
+      </c>
+      <c r="D47">
+        <v>0.009278711707661719</v>
+      </c>
+      <c r="E47">
+        <v>-0.05163330032351449</v>
+      </c>
+      <c r="F47">
+        <v>0.006066614593527915</v>
+      </c>
+      <c r="G47">
+        <v>-0.03844581093766711</v>
+      </c>
+      <c r="H47">
+        <v>0.02642134906432396</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.03171392686758752</v>
+        <v>-0.0373017581770906</v>
       </c>
       <c r="C48">
-        <v>-0.01650433085919497</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>0.009708472449494479</v>
+      </c>
+      <c r="D48">
+        <v>0.01895264521950556</v>
+      </c>
+      <c r="E48">
+        <v>-0.04470704702606085</v>
+      </c>
+      <c r="F48">
+        <v>-2.751131442846803e-06</v>
+      </c>
+      <c r="G48">
+        <v>0.01147275796510156</v>
+      </c>
+      <c r="H48">
+        <v>0.04684827892025713</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>-0.1613771135243491</v>
+        <v>-0.1907206810887225</v>
       </c>
       <c r="C49">
-        <v>-0.06476862401101198</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>0.03510652058104297</v>
+      </c>
+      <c r="D49">
+        <v>0.03220855204021654</v>
+      </c>
+      <c r="E49">
+        <v>0.1417461960274337</v>
+      </c>
+      <c r="F49">
+        <v>0.0744424445117782</v>
+      </c>
+      <c r="G49">
+        <v>-0.06074097396092811</v>
+      </c>
+      <c r="H49">
+        <v>-0.24635121374255</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.03833308224497477</v>
+        <v>-0.04559955943407382</v>
       </c>
       <c r="C50">
-        <v>-0.02317064177791513</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>0.01618234144611359</v>
+      </c>
+      <c r="D50">
+        <v>0.02940895327871645</v>
+      </c>
+      <c r="E50">
+        <v>-0.05545297996167588</v>
+      </c>
+      <c r="F50">
+        <v>0.007896415543245251</v>
+      </c>
+      <c r="G50">
+        <v>-0.02046281788021968</v>
+      </c>
+      <c r="H50">
+        <v>0.06052473322203372</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.02599602367041622</v>
+        <v>-0.02937219970917771</v>
       </c>
       <c r="C51">
-        <v>-0.007729897333454666</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>0.003657925162711692</v>
+      </c>
+      <c r="D51">
+        <v>0.01495044105866098</v>
+      </c>
+      <c r="E51">
+        <v>-0.01603326078289024</v>
+      </c>
+      <c r="F51">
+        <v>0.01823875081002733</v>
+      </c>
+      <c r="G51">
+        <v>0.002173300349535461</v>
+      </c>
+      <c r="H51">
+        <v>-0.004097397673361401</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1260,54 +2040,129 @@
       <c r="C52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.1522529597519625</v>
+        <v>-0.1624632787558961</v>
       </c>
       <c r="C53">
-        <v>-0.0829149205638222</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>0.05310784475563193</v>
+      </c>
+      <c r="D53">
+        <v>0.01792134386832597</v>
+      </c>
+      <c r="E53">
+        <v>0.02336845177808031</v>
+      </c>
+      <c r="F53">
+        <v>0.01985808388965619</v>
+      </c>
+      <c r="G53">
+        <v>-0.005902995146552546</v>
+      </c>
+      <c r="H53">
+        <v>0.1609756394448203</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.05605516051633114</v>
+        <v>-0.05786694333433599</v>
       </c>
       <c r="C54">
-        <v>-0.0251311728047547</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>0.01253932741846101</v>
+      </c>
+      <c r="D54">
+        <v>0.01546650317494731</v>
+      </c>
+      <c r="E54">
+        <v>-0.05338062074179289</v>
+      </c>
+      <c r="F54">
+        <v>0.00139925717736326</v>
+      </c>
+      <c r="G54">
+        <v>0.01077245294725829</v>
+      </c>
+      <c r="H54">
+        <v>0.05278391091050803</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.1006645749460477</v>
+        <v>-0.104060851981346</v>
       </c>
       <c r="C55">
-        <v>-0.05893151885536328</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>0.03649389366620631</v>
+      </c>
+      <c r="D55">
+        <v>0.02343146223810372</v>
+      </c>
+      <c r="E55">
+        <v>-0.01944130503591418</v>
+      </c>
+      <c r="F55">
+        <v>0.01376713965713046</v>
+      </c>
+      <c r="G55">
+        <v>0.001896742191169771</v>
+      </c>
+      <c r="H55">
+        <v>0.1439185840278282</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.1465839294729959</v>
+        <v>-0.1598409708694296</v>
       </c>
       <c r="C56">
-        <v>-0.09460186567356288</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>0.06452536368167633</v>
+      </c>
+      <c r="D56">
+        <v>0.02044471233589513</v>
+      </c>
+      <c r="E56">
+        <v>0.02153161805971685</v>
+      </c>
+      <c r="F56">
+        <v>0.03726415402674457</v>
+      </c>
+      <c r="G56">
+        <v>-0.01501199143241947</v>
+      </c>
+      <c r="H56">
+        <v>0.1638960114203566</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1315,428 +2170,1013 @@
       <c r="C57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.1216998913645044</v>
+        <v>-0.09766109832937471</v>
       </c>
       <c r="C58">
-        <v>-0.007451042134223896</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>-0.03398145474366679</v>
+      </c>
+      <c r="D58">
+        <v>0.03722648194798495</v>
+      </c>
+      <c r="E58">
+        <v>-0.1660323262842182</v>
+      </c>
+      <c r="F58">
+        <v>-0.0234614898477195</v>
+      </c>
+      <c r="G58">
+        <v>-0.0623537226219484</v>
+      </c>
+      <c r="H58">
+        <v>-0.2210440933296176</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.1167695073278653</v>
+        <v>-0.1370579307389161</v>
       </c>
       <c r="C59">
-        <v>-0.08061303557926913</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>0.08558839162984244</v>
+      </c>
+      <c r="D59">
+        <v>-0.3656082149573557</v>
+      </c>
+      <c r="E59">
+        <v>-0.02305361541600164</v>
+      </c>
+      <c r="F59">
+        <v>0.02054121591731668</v>
+      </c>
+      <c r="G59">
+        <v>-0.03650360637447133</v>
+      </c>
+      <c r="H59">
+        <v>0.005461500752874704</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.2032051136076132</v>
+        <v>-0.2324217850435519</v>
       </c>
       <c r="C60">
-        <v>-0.1065697200937281</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>0.06853004417102865</v>
+      </c>
+      <c r="D60">
+        <v>0.03819630089919625</v>
+      </c>
+      <c r="E60">
+        <v>0.09078034075478342</v>
+      </c>
+      <c r="F60">
+        <v>0.07739133971926344</v>
+      </c>
+      <c r="G60">
+        <v>0.02260892473655696</v>
+      </c>
+      <c r="H60">
+        <v>-0.1762650509647852</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.07877324849242416</v>
+        <v>-0.08801267338892586</v>
       </c>
       <c r="C61">
-        <v>-0.05110492235563502</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>0.035055746323969</v>
+      </c>
+      <c r="D61">
+        <v>0.04358773154100899</v>
+      </c>
+      <c r="E61">
+        <v>-0.000815088955256924</v>
+      </c>
+      <c r="F61">
+        <v>0.004630169532441232</v>
+      </c>
+      <c r="G61">
+        <v>-0.000468789865730832</v>
+      </c>
+      <c r="H61">
+        <v>0.07524240624616703</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B62">
-        <v>-0.1278918658849875</v>
+        <v>-0.1393925309697104</v>
       </c>
       <c r="C62">
-        <v>-0.06829861733055502</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>0.04217970384125974</v>
+      </c>
+      <c r="D62">
+        <v>0.0283588835494113</v>
+      </c>
+      <c r="E62">
+        <v>0.05906386377662552</v>
+      </c>
+      <c r="F62">
+        <v>0.02076999679969553</v>
+      </c>
+      <c r="G62">
+        <v>0.02243392694000462</v>
+      </c>
+      <c r="H62">
+        <v>0.1751851256111452</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.05043405920046671</v>
+        <v>-0.0502174070491405</v>
       </c>
       <c r="C63">
-        <v>-0.02597044497249406</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>0.01386406667495771</v>
+      </c>
+      <c r="D63">
+        <v>0.0197444606083476</v>
+      </c>
+      <c r="E63">
+        <v>-0.05283917266839874</v>
+      </c>
+      <c r="F63">
+        <v>-0.01601948254477173</v>
+      </c>
+      <c r="G63">
+        <v>0.02821142120989238</v>
+      </c>
+      <c r="H63">
+        <v>0.0585827872197628</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.1071954691140355</v>
+        <v>-0.1101658421058139</v>
       </c>
       <c r="C64">
-        <v>-0.02739735788660478</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>0.004764037477396458</v>
+      </c>
+      <c r="D64">
+        <v>0.03936337362322768</v>
+      </c>
+      <c r="E64">
+        <v>-0.04747462836785085</v>
+      </c>
+      <c r="F64">
+        <v>0.04161049198199571</v>
+      </c>
+      <c r="G64">
+        <v>0.04926077253254341</v>
+      </c>
+      <c r="H64">
+        <v>0.05860186902784737</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.1202443725440644</v>
+        <v>-0.1268576846346279</v>
       </c>
       <c r="C65">
-        <v>-0.06271302752331941</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>0.03972884444862904</v>
+      </c>
+      <c r="D65">
+        <v>-0.0001815479165385462</v>
+      </c>
+      <c r="E65">
+        <v>-0.01393932952538061</v>
+      </c>
+      <c r="F65">
+        <v>0.06171316417201707</v>
+      </c>
+      <c r="G65">
+        <v>0.05880395194701835</v>
+      </c>
+      <c r="H65">
+        <v>-0.1405178799939557</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.1408209363630178</v>
+        <v>-0.1537933289932815</v>
       </c>
       <c r="C66">
-        <v>-0.07669992035792175</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>0.04504193467552028</v>
+      </c>
+      <c r="D66">
+        <v>0.101838034917379</v>
+      </c>
+      <c r="E66">
+        <v>0.02501077604324319</v>
+      </c>
+      <c r="F66">
+        <v>0.01944278526846556</v>
+      </c>
+      <c r="G66">
+        <v>0.04392483533553265</v>
+      </c>
+      <c r="H66">
+        <v>0.1507554277303914</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.07191902502178528</v>
+        <v>-0.08330946104543525</v>
       </c>
       <c r="C67">
-        <v>-0.01412869205969507</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>0.00382249435865292</v>
+      </c>
+      <c r="D67">
+        <v>0.03000484467437272</v>
+      </c>
+      <c r="E67">
+        <v>-0.02622301534461296</v>
+      </c>
+      <c r="F67">
+        <v>0.01354338929918469</v>
+      </c>
+      <c r="G67">
+        <v>-0.008666619432756234</v>
+      </c>
+      <c r="H67">
+        <v>0.02792459500369721</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.05848811616226506</v>
+        <v>-0.0580042563585139</v>
       </c>
       <c r="C68">
-        <v>-0.0519931863069232</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>0.05695079345905087</v>
+      </c>
+      <c r="D68">
+        <v>-0.2700344458212321</v>
+      </c>
+      <c r="E68">
+        <v>-0.03690631063407281</v>
+      </c>
+      <c r="F68">
+        <v>0.01612040197681967</v>
+      </c>
+      <c r="G68">
+        <v>-0.01503853058821225</v>
+      </c>
+      <c r="H68">
+        <v>0.006743679078046568</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.05365565617768211</v>
+        <v>-0.05320275096438318</v>
       </c>
       <c r="C69">
-        <v>-0.0193759176935722</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>0.004959618076363424</v>
+      </c>
+      <c r="D69">
+        <v>0.01595714348286186</v>
+      </c>
+      <c r="E69">
+        <v>-0.02483624695078569</v>
+      </c>
+      <c r="F69">
+        <v>-0.01031879376017579</v>
+      </c>
+      <c r="G69">
+        <v>-0.01491433683260611</v>
+      </c>
+      <c r="H69">
+        <v>0.05407559287759395</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B70">
-        <v>-0.005372422721679051</v>
+        <v>-0.02681948455445835</v>
       </c>
       <c r="C70">
-        <v>0.004138802865472185</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>0.0003314164301783583</v>
+      </c>
+      <c r="D70">
+        <v>0.001216397146467843</v>
+      </c>
+      <c r="E70">
+        <v>0.02425431768991824</v>
+      </c>
+      <c r="F70">
+        <v>0.0313871936144191</v>
+      </c>
+      <c r="G70">
+        <v>-0.01974122636131631</v>
+      </c>
+      <c r="H70">
+        <v>-0.05005810449701659</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.05788146440292473</v>
+        <v>-0.06027090915395122</v>
       </c>
       <c r="C71">
-        <v>-0.0512682806481522</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>0.05965260428863366</v>
+      </c>
+      <c r="D71">
+        <v>-0.2947410361976532</v>
+      </c>
+      <c r="E71">
+        <v>-0.03526865421045758</v>
+      </c>
+      <c r="F71">
+        <v>0.0426663140846927</v>
+      </c>
+      <c r="G71">
+        <v>-0.004226297472437946</v>
+      </c>
+      <c r="H71">
+        <v>0.01375326291990542</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.138642167718916</v>
+        <v>-0.1479809139582932</v>
       </c>
       <c r="C72">
-        <v>-0.06609495108236339</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>0.0377345829374551</v>
+      </c>
+      <c r="D72">
+        <v>-0.01229569510871273</v>
+      </c>
+      <c r="E72">
+        <v>0.125491961678414</v>
+      </c>
+      <c r="F72">
+        <v>-0.1504983767303748</v>
+      </c>
+      <c r="G72">
+        <v>0.112574157472785</v>
+      </c>
+      <c r="H72">
+        <v>0.02724437253412521</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.2718124305031026</v>
+        <v>-0.2877777976449619</v>
       </c>
       <c r="C73">
-        <v>-0.1147137324076522</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>0.04647912186593895</v>
+      </c>
+      <c r="D73">
+        <v>0.1008154675828929</v>
+      </c>
+      <c r="E73">
+        <v>0.2111674739219529</v>
+      </c>
+      <c r="F73">
+        <v>0.1232593527897492</v>
+      </c>
+      <c r="G73">
+        <v>-0.1732028014427563</v>
+      </c>
+      <c r="H73">
+        <v>-0.4682699105061895</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.07946879894267458</v>
+        <v>-0.09219323267963386</v>
       </c>
       <c r="C74">
-        <v>-0.07945950928024013</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>0.05988896216029489</v>
+      </c>
+      <c r="D74">
+        <v>0.03227718189991195</v>
+      </c>
+      <c r="E74">
+        <v>0.004494578221887434</v>
+      </c>
+      <c r="F74">
+        <v>-0.007689146981187185</v>
+      </c>
+      <c r="G74">
+        <v>-0.04304225369316012</v>
+      </c>
+      <c r="H74">
+        <v>0.1186444575184228</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.09412925850936765</v>
+        <v>-0.09990967018002055</v>
       </c>
       <c r="C75">
-        <v>-0.05613984655172011</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>0.02945631855942064</v>
+      </c>
+      <c r="D75">
+        <v>0.01379577138465989</v>
+      </c>
+      <c r="E75">
+        <v>-0.01169924721769487</v>
+      </c>
+      <c r="F75">
+        <v>0.02736933691417364</v>
+      </c>
+      <c r="G75">
+        <v>-0.01608676900737569</v>
+      </c>
+      <c r="H75">
+        <v>0.1092730429552592</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.1299969993625685</v>
+        <v>-0.140395720835942</v>
       </c>
       <c r="C76">
-        <v>-0.08563310580589154</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+        <v>0.0563280918308966</v>
+      </c>
+      <c r="D76">
+        <v>0.0498795067391029</v>
+      </c>
+      <c r="E76">
+        <v>-0.03565294995442315</v>
+      </c>
+      <c r="F76">
+        <v>0.04236244980999627</v>
+      </c>
+      <c r="G76">
+        <v>-0.0007395160156090508</v>
+      </c>
+      <c r="H76">
+        <v>0.1701599217447381</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.1154925015020145</v>
+        <v>-0.1117485759730732</v>
       </c>
       <c r="C77">
-        <v>-0.02356785660134481</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>-0.00289704037333571</v>
+      </c>
+      <c r="D77">
+        <v>0.01998671699984747</v>
+      </c>
+      <c r="E77">
+        <v>-0.02597201591043567</v>
+      </c>
+      <c r="F77">
+        <v>0.1304122263769618</v>
+      </c>
+      <c r="G77">
+        <v>0.8856142957026623</v>
+      </c>
+      <c r="H77">
+        <v>-0.1688981934606157</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.09923420198306995</v>
+        <v>-0.138409993833934</v>
       </c>
       <c r="C78">
-        <v>-0.04069712056067708</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>0.03187465917994915</v>
+      </c>
+      <c r="D78">
+        <v>0.09170039540499492</v>
+      </c>
+      <c r="E78">
+        <v>-0.05563941633381012</v>
+      </c>
+      <c r="F78">
+        <v>0.02869602816405962</v>
+      </c>
+      <c r="G78">
+        <v>0.0683451473603868</v>
+      </c>
+      <c r="H78">
+        <v>-0.04368657374361581</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>-0.146605093467398</v>
+        <v>-0.1520250710258059</v>
       </c>
       <c r="C79">
-        <v>-0.08241129162940854</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>0.04608000617178393</v>
+      </c>
+      <c r="D79">
+        <v>0.02672090371651108</v>
+      </c>
+      <c r="E79">
+        <v>0.01137527370126929</v>
+      </c>
+      <c r="F79">
+        <v>0.01819060857762369</v>
+      </c>
+      <c r="G79">
+        <v>-0.02324864114491199</v>
+      </c>
+      <c r="H79">
+        <v>0.1726890594506378</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.04539433547030613</v>
+        <v>-0.04329295437665033</v>
       </c>
       <c r="C80">
-        <v>-0.01671349671757528</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>0.006189133184821997</v>
+      </c>
+      <c r="D80">
+        <v>0.01844601419245659</v>
+      </c>
+      <c r="E80">
+        <v>0.006539901222091484</v>
+      </c>
+      <c r="F80">
+        <v>-0.004498109691565557</v>
+      </c>
+      <c r="G80">
+        <v>-0.03523250328150086</v>
+      </c>
+      <c r="H80">
+        <v>0.04326855700434548</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.1156924821612089</v>
+        <v>-0.1200472661543456</v>
       </c>
       <c r="C81">
-        <v>-0.06655491509809841</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>0.03732430065627129</v>
+      </c>
+      <c r="D81">
+        <v>0.02305414321024193</v>
+      </c>
+      <c r="E81">
+        <v>-0.03029783248091019</v>
+      </c>
+      <c r="F81">
+        <v>0.01245476932716848</v>
+      </c>
+      <c r="G81">
+        <v>-0.04769440429745033</v>
+      </c>
+      <c r="H81">
+        <v>0.1465701956018612</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>-0.1302075057588289</v>
+        <v>-0.1310172406813387</v>
       </c>
       <c r="C82">
-        <v>-0.08105081427665166</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>0.0491926886704333</v>
+      </c>
+      <c r="D82">
+        <v>0.02654829368735519</v>
+      </c>
+      <c r="E82">
+        <v>0.006865327946962627</v>
+      </c>
+      <c r="F82">
+        <v>0.05946449067782426</v>
+      </c>
+      <c r="G82">
+        <v>-0.03412109847999428</v>
+      </c>
+      <c r="H82">
+        <v>0.1978925653770109</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.08071003846909507</v>
+        <v>-0.08909257956903381</v>
       </c>
       <c r="C83">
-        <v>0.002353694796995251</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>-0.02021339310483467</v>
+      </c>
+      <c r="D83">
+        <v>0.03609745222282738</v>
+      </c>
+      <c r="E83">
+        <v>-0.02163228008980073</v>
+      </c>
+      <c r="F83">
+        <v>0.05407275232991499</v>
+      </c>
+      <c r="G83">
+        <v>-0.08700624300240348</v>
+      </c>
+      <c r="H83">
+        <v>-0.06148145272486768</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>-0.02873746415261173</v>
+        <v>-0.0375553083050134</v>
       </c>
       <c r="C84">
-        <v>-0.0254544079860981</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>0.01891967019518161</v>
+      </c>
+      <c r="D84">
+        <v>0.02876584831055585</v>
+      </c>
+      <c r="E84">
+        <v>-0.01848174747740393</v>
+      </c>
+      <c r="F84">
+        <v>-0.05684404991736203</v>
+      </c>
+      <c r="G84">
+        <v>-0.06487479860031718</v>
+      </c>
+      <c r="H84">
+        <v>0.008735113979108484</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.1185695200784603</v>
+        <v>-0.1196928685423561</v>
       </c>
       <c r="C85">
-        <v>-0.06279210455898246</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>0.03185534065035945</v>
+      </c>
+      <c r="D85">
+        <v>0.02430760712725998</v>
+      </c>
+      <c r="E85">
+        <v>-0.02536637299771565</v>
+      </c>
+      <c r="F85">
+        <v>0.03872759938770918</v>
+      </c>
+      <c r="G85">
+        <v>-0.01622200837050258</v>
+      </c>
+      <c r="H85">
+        <v>0.1473062607509177</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.04957946976204978</v>
+        <v>-0.05840442680391345</v>
       </c>
       <c r="C86">
-        <v>-0.02952713769847361</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>0.01853675697482665</v>
+      </c>
+      <c r="D86">
+        <v>0.02386181921829231</v>
+      </c>
+      <c r="E86">
+        <v>-0.06600957579179384</v>
+      </c>
+      <c r="F86">
+        <v>0.02181228591552413</v>
+      </c>
+      <c r="G86">
+        <v>-0.01901264774390959</v>
+      </c>
+      <c r="H86">
+        <v>-0.005581619235717137</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.1213314655933867</v>
+        <v>-0.122319769787032</v>
       </c>
       <c r="C87">
-        <v>-0.07081309057197961</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>0.0346963371245543</v>
+      </c>
+      <c r="D87">
+        <v>0.07579910042443208</v>
+      </c>
+      <c r="E87">
+        <v>-0.02205781917884292</v>
+      </c>
+      <c r="F87">
+        <v>-0.006981981119162956</v>
+      </c>
+      <c r="G87">
+        <v>0.1146247675051794</v>
+      </c>
+      <c r="H87">
+        <v>-0.02847680933326112</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.05319934220401085</v>
+        <v>-0.06052189088880138</v>
       </c>
       <c r="C88">
-        <v>-0.03014714929135862</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>0.01886300943337822</v>
+      </c>
+      <c r="D88">
+        <v>0.02829147530159602</v>
+      </c>
+      <c r="E88">
+        <v>-0.02183747688518898</v>
+      </c>
+      <c r="F88">
+        <v>0.006390517672420239</v>
+      </c>
+      <c r="G88">
+        <v>0.007283322308145716</v>
+      </c>
+      <c r="H88">
+        <v>0.05193485718233654</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.0797573143713261</v>
+        <v>-0.09172679742983192</v>
       </c>
       <c r="C89">
-        <v>-0.0678471996659948</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>0.07772201586395819</v>
+      </c>
+      <c r="D89">
+        <v>-0.3425884322807026</v>
+      </c>
+      <c r="E89">
+        <v>-0.07375944184286194</v>
+      </c>
+      <c r="F89">
+        <v>0.07918172402804613</v>
+      </c>
+      <c r="G89">
+        <v>-0.02115350015492397</v>
+      </c>
+      <c r="H89">
+        <v>0.003726774026100479</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.07244546913673862</v>
+        <v>-0.07885300036629117</v>
       </c>
       <c r="C90">
-        <v>-0.0605764924594595</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>0.0672874817929246</v>
+      </c>
+      <c r="D90">
+        <v>-0.3108586028129222</v>
+      </c>
+      <c r="E90">
+        <v>-0.05995058900584763</v>
+      </c>
+      <c r="F90">
+        <v>0.001415974899360607</v>
+      </c>
+      <c r="G90">
+        <v>-0.003232640074668597</v>
+      </c>
+      <c r="H90">
+        <v>0.008638173651637653</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.08452831058464996</v>
+        <v>-0.08952279429185983</v>
       </c>
       <c r="C91">
-        <v>-0.05565057178286576</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>0.0333433865751615</v>
+      </c>
+      <c r="D91">
+        <v>0.03072218579651688</v>
+      </c>
+      <c r="E91">
+        <v>-0.01645992619416994</v>
+      </c>
+      <c r="F91">
+        <v>0.002680207428489479</v>
+      </c>
+      <c r="G91">
+        <v>-0.05438789328066929</v>
+      </c>
+      <c r="H91">
+        <v>0.07545304994011429</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.0736431267124502</v>
+        <v>-0.07955577195736793</v>
       </c>
       <c r="C92">
-        <v>-0.07369307383769615</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>0.08081610538907989</v>
+      </c>
+      <c r="D92">
+        <v>-0.3415109354903178</v>
+      </c>
+      <c r="E92">
+        <v>-0.04641176286150791</v>
+      </c>
+      <c r="F92">
+        <v>0.03956637048644883</v>
+      </c>
+      <c r="G92">
+        <v>0.007176520988739892</v>
+      </c>
+      <c r="H92">
+        <v>0.02754653126649926</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.06581732457133239</v>
+        <v>-0.07736535690269995</v>
       </c>
       <c r="C93">
-        <v>-0.06724502846379626</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>0.07869656227146093</v>
+      </c>
+      <c r="D93">
+        <v>-0.3081201723413135</v>
+      </c>
+      <c r="E93">
+        <v>-0.03882408607148036</v>
+      </c>
+      <c r="F93">
+        <v>0.04022135807412874</v>
+      </c>
+      <c r="G93">
+        <v>0.01060551760918934</v>
+      </c>
+      <c r="H93">
+        <v>-0.00997253486879191</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.1334053904013254</v>
+        <v>-0.1273135731827819</v>
       </c>
       <c r="C94">
-        <v>-0.06089852791118084</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>0.02265548540043865</v>
+      </c>
+      <c r="D94">
+        <v>0.0471765016354315</v>
+      </c>
+      <c r="E94">
+        <v>0.00124556679687337</v>
+      </c>
+      <c r="F94">
+        <v>0.02113452756832222</v>
+      </c>
+      <c r="G94">
+        <v>-0.05201695069523753</v>
+      </c>
+      <c r="H94">
+        <v>0.09688362456634771</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.1189445969978387</v>
+        <v>-0.1294531244135228</v>
       </c>
       <c r="C95">
-        <v>-0.03662249897242948</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>0.0082629226402569</v>
+      </c>
+      <c r="D95">
+        <v>0.06105693208653808</v>
+      </c>
+      <c r="E95">
+        <v>-0.01390458697884998</v>
+      </c>
+      <c r="F95">
+        <v>0.04724479808032747</v>
+      </c>
+      <c r="G95">
+        <v>-0.009555894160073325</v>
+      </c>
+      <c r="H95">
+        <v>-0.02901110111899459</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -1744,43 +3184,103 @@
       <c r="C96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:3">
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>-0.2026867044617658</v>
+        <v>-0.2097951783643663</v>
       </c>
       <c r="C97">
-        <v>-0.04470435522368554</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>0.004505962059200361</v>
+      </c>
+      <c r="D97">
+        <v>-0.09573547082752627</v>
+      </c>
+      <c r="E97">
+        <v>0.3525454261140177</v>
+      </c>
+      <c r="F97">
+        <v>-0.8493221169805143</v>
+      </c>
+      <c r="G97">
+        <v>0.09093994578433694</v>
+      </c>
+      <c r="H97">
+        <v>0.01132677844518019</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.2442475685850944</v>
+        <v>-0.2750676170293946</v>
       </c>
       <c r="C98">
-        <v>-0.08118571046139758</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>0.03415931605332889</v>
+      </c>
+      <c r="D98">
+        <v>0.06076035631544445</v>
+      </c>
+      <c r="E98">
+        <v>0.1659925058519399</v>
+      </c>
+      <c r="F98">
+        <v>0.0899345404705859</v>
+      </c>
+      <c r="G98">
+        <v>-0.2671613449494739</v>
+      </c>
+      <c r="H98">
+        <v>-0.2424431866973971</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B99">
-        <v>-0.4621719385682769</v>
+        <v>-0.2818585168241847</v>
       </c>
       <c r="C99">
-        <v>0.8713225733429983</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>-0.9366831847193833</v>
+      </c>
+      <c r="D99">
+        <v>-0.1293977395143091</v>
+      </c>
+      <c r="E99">
+        <v>-0.06495330073378514</v>
+      </c>
+      <c r="F99">
+        <v>0.04340292301938403</v>
+      </c>
+      <c r="G99">
+        <v>-0.01290882675682181</v>
+      </c>
+      <c r="H99">
+        <v>0.06620502056859465</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -1788,21 +3288,51 @@
       <c r="C100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:3">
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.04056859009184085</v>
+        <v>-0.04860616980008581</v>
       </c>
       <c r="C101">
-        <v>-0.03220499605490793</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>0.02610722453264498</v>
+      </c>
+      <c r="D101">
+        <v>0.004936683092539732</v>
+      </c>
+      <c r="E101">
+        <v>-0.05684251362454212</v>
+      </c>
+      <c r="F101">
+        <v>-0.002272367190395069</v>
+      </c>
+      <c r="G101">
+        <v>-0.006198467174886595</v>
+      </c>
+      <c r="H101">
+        <v>0.08301525037512392</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -1810,10 +3340,25 @@
       <c r="C102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -1821,15 +3366,45 @@
       <c r="C103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
